--- a/hw2_requirements.xlsx
+++ b/hw2_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abett\OneDrive\Duke\ECE568\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C5E2D5-EA47-4D6E-9629-0E9EB3EDA749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188D005-0A4F-46D7-9AAA-281FA850A644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Extra note to TA</t>
   </si>
@@ -94,14 +94,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Yes(Issue in cache)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implemented(Issue)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Thread</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,9 +103,6 @@
   </si>
   <si>
     <t>Please see READEME</t>
-  </si>
-  <si>
-    <t>Please see READEME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -123,6 +112,9 @@
   <si>
     <t>We first established a connection with the destination server; then a tunnel is built based on select(), two side of the tunnel communicate in no specific order; the tunnel is closed when one side closed the socket connection.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache Size is 100. LRU policy. Once the capacity of cache is reached, clean the expired response.</t>
   </si>
 </sst>
 </file>
@@ -158,15 +150,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,19 +172,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -197,6 +207,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,14 +529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="64.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="62.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,7 +555,7 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -547,74 +563,71 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.05" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.05" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="16.05" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
-        <v>26</v>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.05" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -622,24 +635,24 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>28</v>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="55.05" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="16.05" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -647,46 +660,52 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.05" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31.05" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16.05" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.05" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="16.05" customHeight="1">
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.05" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="16.05" customHeight="1">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.05" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
